--- a/results/mp/deberta/corona/confidence/42/stop-words-topk-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-topk-0.2/avg_0.004_scores.xlsx
@@ -82,13 +82,13 @@
     <t>positive</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>fresh</t>
   </si>
   <si>
     <t>heroes</t>
@@ -951,25 +951,25 @@
         <v>22</v>
       </c>
       <c r="K14">
-        <v>0.6695652173913044</v>
+        <v>0.6534653465346535</v>
       </c>
       <c r="L14">
-        <v>154</v>
+        <v>66</v>
       </c>
       <c r="M14">
-        <v>163</v>
+        <v>71</v>
       </c>
       <c r="N14">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="O14">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P14" t="b">
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>76</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -977,25 +977,25 @@
         <v>23</v>
       </c>
       <c r="K15">
-        <v>0.6534653465346535</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="L15">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="M15">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="N15">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O15">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P15" t="b">
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1003,25 +1003,25 @@
         <v>24</v>
       </c>
       <c r="K16">
-        <v>0.6521739130434783</v>
+        <v>0.6443514644351465</v>
       </c>
       <c r="L16">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="M16">
-        <v>32</v>
+        <v>154</v>
       </c>
       <c r="N16">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1107,25 +1107,25 @@
         <v>28</v>
       </c>
       <c r="K20">
-        <v>0.5365853658536586</v>
+        <v>0.5176470588235295</v>
       </c>
       <c r="L20">
         <v>176</v>
       </c>
       <c r="M20">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="N20">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="10:17">
